--- a/chipSolver/Book2.xlsx
+++ b/chipSolver/Book2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="79">
   <si>
     <t>layer_multiplier</t>
   </si>
@@ -31,6 +31,9 @@
     <t>[3, 3, 3, 2, 2, 2, 2]</t>
   </si>
   <si>
+    <t>[1, 1, 1, 1, 1, 1, 1]</t>
+  </si>
+  <si>
     <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=2, tm_hour=15, tm_min=10, tm_sec=58, tm_wday=3, tm_yday=122, tm_isdst=1)</t>
   </si>
   <si>
@@ -146,6 +149,108 @@
   </si>
   <si>
     <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=11, tm_hour=12, tm_min=34, tm_sec=14, tm_wday=5, tm_yday=131, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=15, tm_hour=9, tm_min=52, tm_sec=9, tm_wday=2, tm_yday=135, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=15, tm_hour=9, tm_min=52, tm_sec=16, tm_wday=2, tm_yday=135, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=15, tm_hour=9, tm_min=53, tm_sec=5, tm_wday=2, tm_yday=135, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=15, tm_hour=10, tm_min=2, tm_sec=5, tm_wday=2, tm_yday=135, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=15, tm_hour=10, tm_min=4, tm_sec=32, tm_wday=2, tm_yday=135, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=15, tm_hour=10, tm_min=38, tm_sec=27, tm_wday=2, tm_yday=135, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=15, tm_hour=10, tm_min=40, tm_sec=39, tm_wday=2, tm_yday=135, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=15, tm_hour=10, tm_min=41, tm_sec=26, tm_wday=2, tm_yday=135, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=15, tm_hour=10, tm_min=59, tm_sec=55, tm_wday=2, tm_yday=135, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=15, tm_hour=11, tm_min=0, tm_sec=45, tm_wday=2, tm_yday=135, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=15, tm_hour=11, tm_min=3, tm_sec=34, tm_wday=2, tm_yday=135, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=15, tm_hour=11, tm_min=9, tm_sec=42, tm_wday=2, tm_yday=135, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=15, tm_hour=11, tm_min=10, tm_sec=25, tm_wday=2, tm_yday=135, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=15, tm_hour=11, tm_min=12, tm_sec=45, tm_wday=2, tm_yday=135, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=15, tm_hour=11, tm_min=15, tm_sec=18, tm_wday=2, tm_yday=135, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=15, tm_hour=11, tm_min=17, tm_sec=41, tm_wday=2, tm_yday=135, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=15, tm_hour=11, tm_min=21, tm_sec=2, tm_wday=2, tm_yday=135, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=15, tm_min=49, tm_sec=40, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=15, tm_min=50, tm_sec=3, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=16, tm_min=1, tm_sec=14, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=16, tm_min=3, tm_sec=1, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=16, tm_min=7, tm_sec=47, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=16, tm_min=9, tm_sec=3, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=16, tm_min=13, tm_sec=22, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=16, tm_min=21, tm_sec=29, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=16, tm_min=22, tm_sec=0, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=16, tm_min=23, tm_sec=19, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=16, tm_min=24, tm_sec=10, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=16, tm_min=29, tm_sec=14, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=16, tm_min=50, tm_sec=47, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=16, tm_min=54, tm_sec=52, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=17, tm_min=0, tm_sec=53, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=17, tm_min=13, tm_sec=23, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=17, tm_min=20, tm_sec=13, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
   </si>
 </sst>
 </file>
@@ -503,7 +608,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -551,7 +656,7 @@
         <v>1.5</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -568,7 +673,7 @@
         <v>1.5</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -585,7 +690,7 @@
         <v>1.5</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -602,7 +707,7 @@
         <v>1.5</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -619,7 +724,7 @@
         <v>1.5</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -636,7 +741,7 @@
         <v>1.5</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -653,7 +758,7 @@
         <v>1.5</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -670,7 +775,7 @@
         <v>1.5</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -687,7 +792,7 @@
         <v>1.5</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -704,7 +809,7 @@
         <v>1.5</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -721,7 +826,7 @@
         <v>1.5</v>
       </c>
       <c r="E13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -738,7 +843,7 @@
         <v>1.5</v>
       </c>
       <c r="E14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -755,7 +860,7 @@
         <v>1.5</v>
       </c>
       <c r="E15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -772,7 +877,7 @@
         <v>1.5</v>
       </c>
       <c r="E16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -789,7 +894,7 @@
         <v>1.5</v>
       </c>
       <c r="E17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -806,7 +911,7 @@
         <v>1.5</v>
       </c>
       <c r="E18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -823,7 +928,7 @@
         <v>1.5</v>
       </c>
       <c r="E19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -840,7 +945,7 @@
         <v>1.5</v>
       </c>
       <c r="E20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -857,7 +962,7 @@
         <v>1.5</v>
       </c>
       <c r="E21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -874,7 +979,7 @@
         <v>1.5</v>
       </c>
       <c r="E22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -891,7 +996,7 @@
         <v>1.5</v>
       </c>
       <c r="E23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -908,7 +1013,7 @@
         <v>1.5</v>
       </c>
       <c r="E24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -925,7 +1030,7 @@
         <v>1.5</v>
       </c>
       <c r="E25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -942,7 +1047,7 @@
         <v>1.5</v>
       </c>
       <c r="E26" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -959,7 +1064,7 @@
         <v>1.5</v>
       </c>
       <c r="E27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -976,7 +1081,7 @@
         <v>1.5</v>
       </c>
       <c r="E28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -993,7 +1098,7 @@
         <v>1.5</v>
       </c>
       <c r="E29" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1010,7 +1115,7 @@
         <v>1.5</v>
       </c>
       <c r="E30" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1027,7 +1132,7 @@
         <v>1.5</v>
       </c>
       <c r="E31" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1044,7 +1149,7 @@
         <v>1.5</v>
       </c>
       <c r="E32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1061,7 +1166,7 @@
         <v>1.5</v>
       </c>
       <c r="E33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1078,7 +1183,7 @@
         <v>1.5</v>
       </c>
       <c r="E34" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1095,7 +1200,7 @@
         <v>1.5</v>
       </c>
       <c r="E35" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1112,7 +1217,7 @@
         <v>1.5</v>
       </c>
       <c r="E36" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1129,7 +1234,7 @@
         <v>1.5</v>
       </c>
       <c r="E37" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1146,7 +1251,7 @@
         <v>1.5</v>
       </c>
       <c r="E38" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1163,7 +1268,7 @@
         <v>1.5</v>
       </c>
       <c r="E39" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1180,7 +1285,7 @@
         <v>1.5</v>
       </c>
       <c r="E40" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1197,7 +1302,585 @@
         <v>1.5</v>
       </c>
       <c r="E41" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="1">
         <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46">
+        <v>0.01</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47">
+        <v>0.01</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48">
+        <v>0.01</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49">
+        <v>0.01</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50">
+        <v>0.01</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51">
+        <v>0.01</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52">
+        <v>0.01</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53">
+        <v>0.01</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54">
+        <v>0.01</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55">
+        <v>0.01</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56">
+        <v>0.01</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57">
+        <v>0.01</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58">
+        <v>0.01</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59">
+        <v>0.01</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60">
+        <v>0.01</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61">
+        <v>0.01</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62">
+        <v>0.01</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63">
+        <v>0.01</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64">
+        <v>0.01</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65">
+        <v>0.01</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66">
+        <v>0.01</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67">
+        <v>0.01</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68">
+        <v>0.01</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>5</v>
+      </c>
+      <c r="C69">
+        <v>0.01</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70">
+        <v>0.05</v>
+      </c>
+      <c r="D70">
+        <v>1.5</v>
+      </c>
+      <c r="E70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71">
+        <v>0.05</v>
+      </c>
+      <c r="D71">
+        <v>1.5</v>
+      </c>
+      <c r="E71" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>5</v>
+      </c>
+      <c r="C72">
+        <v>0.05</v>
+      </c>
+      <c r="D72">
+        <v>3</v>
+      </c>
+      <c r="E72" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73">
+        <v>0.05</v>
+      </c>
+      <c r="D73">
+        <v>3</v>
+      </c>
+      <c r="E73" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74">
+        <v>0.05</v>
+      </c>
+      <c r="D74">
+        <v>3</v>
+      </c>
+      <c r="E74" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75">
+        <v>0.05</v>
+      </c>
+      <c r="D75">
+        <v>3</v>
+      </c>
+      <c r="E75" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/chipSolver/Book2.xlsx
+++ b/chipSolver/Book2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="202">
   <si>
     <t>layer_multiplier</t>
   </si>
@@ -34,6 +34,12 @@
     <t>[1, 1, 1, 1, 1, 1, 1]</t>
   </si>
   <si>
+    <t>[5, 4, 3, 1, 1, 1, 1]</t>
+  </si>
+  <si>
+    <t>[3, 2, 2, 1.5, 1, 1, 1]</t>
+  </si>
+  <si>
     <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=2, tm_hour=15, tm_min=10, tm_sec=58, tm_wday=3, tm_yday=122, tm_isdst=1)</t>
   </si>
   <si>
@@ -251,6 +257,369 @@
   </si>
   <si>
     <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=17, tm_min=20, tm_sec=13, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=18, tm_min=49, tm_sec=56, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=18, tm_min=50, tm_sec=53, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=18, tm_min=51, tm_sec=25, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=18, tm_min=51, tm_sec=52, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=18, tm_min=52, tm_sec=25, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=18, tm_min=52, tm_sec=58, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=18, tm_min=53, tm_sec=32, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=18, tm_min=54, tm_sec=17, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=18, tm_min=58, tm_sec=0, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=18, tm_min=58, tm_sec=35, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=18, tm_min=58, tm_sec=49, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=18, tm_min=59, tm_sec=14, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=18, tm_min=59, tm_sec=44, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=19, tm_min=0, tm_sec=13, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=19, tm_min=0, tm_sec=42, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=19, tm_min=1, tm_sec=20, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=19, tm_min=1, tm_sec=44, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=19, tm_min=2, tm_sec=16, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=19, tm_min=3, tm_sec=9, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=19, tm_min=3, tm_sec=23, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=19, tm_min=4, tm_sec=9, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=19, tm_min=5, tm_sec=7, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=19, tm_min=10, tm_sec=5, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=19, tm_min=12, tm_sec=24, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=19, tm_min=13, tm_sec=24, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=19, tm_min=13, tm_sec=51, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=19, tm_min=14, tm_sec=3, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=19, tm_min=14, tm_sec=25, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=19, tm_min=14, tm_sec=42, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=19, tm_min=20, tm_sec=45, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=19, tm_min=22, tm_sec=14, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=19, tm_min=22, tm_sec=42, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=19, tm_min=22, tm_sec=56, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=19, tm_min=23, tm_sec=24, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=19, tm_min=24, tm_sec=20, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=19, tm_min=24, tm_sec=31, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=19, tm_min=26, tm_sec=6, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=19, tm_min=27, tm_sec=11, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=19, tm_min=27, tm_sec=18, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=19, tm_min=28, tm_sec=4, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=19, tm_min=28, tm_sec=27, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=19, tm_min=29, tm_sec=3, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=19, tm_min=29, tm_sec=31, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=19, tm_min=29, tm_sec=41, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=19, tm_min=30, tm_sec=22, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=19, tm_min=31, tm_sec=0, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=19, tm_min=31, tm_sec=22, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=19, tm_min=32, tm_sec=0, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=19, tm_min=32, tm_sec=29, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=19, tm_min=34, tm_sec=10, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=19, tm_min=35, tm_sec=12, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=19, tm_min=35, tm_sec=50, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=19, tm_min=36, tm_sec=13, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=19, tm_min=36, tm_sec=52, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=19, tm_min=37, tm_sec=13, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=19, tm_min=37, tm_sec=27, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=19, tm_min=37, tm_sec=42, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=19, tm_min=38, tm_sec=6, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=19, tm_min=38, tm_sec=12, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=19, tm_min=39, tm_sec=12, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=19, tm_min=39, tm_sec=45, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=19, tm_min=41, tm_sec=57, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=19, tm_min=42, tm_sec=8, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=19, tm_min=42, tm_sec=31, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=19, tm_min=42, tm_sec=56, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=19, tm_min=43, tm_sec=53, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=19, tm_min=44, tm_sec=38, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=19, tm_min=44, tm_sec=58, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=19, tm_min=45, tm_sec=24, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=19, tm_min=45, tm_sec=39, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=19, tm_min=47, tm_sec=12, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=19, tm_min=48, tm_sec=10, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=19, tm_min=49, tm_sec=15, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=19, tm_min=50, tm_sec=10, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=19, tm_min=50, tm_sec=29, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=19, tm_min=50, tm_sec=55, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=19, tm_min=51, tm_sec=23, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=19, tm_min=51, tm_sec=45, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=19, tm_min=53, tm_sec=5, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=19, tm_min=54, tm_sec=38, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=20, tm_min=2, tm_sec=7, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=20, tm_min=2, tm_sec=28, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=20, tm_min=5, tm_sec=4, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=20, tm_min=5, tm_sec=55, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=20, tm_min=6, tm_sec=21, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=20, tm_min=7, tm_sec=5, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=20, tm_min=7, tm_sec=50, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=20, tm_min=8, tm_sec=42, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=20, tm_min=9, tm_sec=17, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=20, tm_min=13, tm_sec=17, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=20, tm_min=13, tm_sec=58, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=20, tm_min=15, tm_sec=55, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=20, tm_min=16, tm_sec=47, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=20, tm_min=17, tm_sec=29, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=20, tm_min=17, tm_sec=48, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=20, tm_min=18, tm_sec=11, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=20, tm_min=18, tm_sec=37, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=20, tm_min=19, tm_sec=22, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=20, tm_min=19, tm_sec=50, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=20, tm_min=20, tm_sec=34, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=20, tm_min=20, tm_sec=45, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=20, tm_min=21, tm_sec=6, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=20, tm_min=21, tm_sec=21, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=20, tm_min=21, tm_sec=45, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=20, tm_min=21, tm_sec=57, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=20, tm_min=24, tm_sec=13, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=20, tm_min=24, tm_sec=23, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=20, tm_min=24, tm_sec=34, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=20, tm_min=24, tm_sec=42, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=20, tm_min=25, tm_sec=54, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=20, tm_min=26, tm_sec=2, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=20, tm_min=29, tm_sec=4, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=20, tm_min=29, tm_sec=21, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=20, tm_min=30, tm_sec=41, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=20, tm_min=30, tm_sec=53, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=20, tm_min=31, tm_sec=1, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=20, tm_min=31, tm_sec=49, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=20, tm_min=32, tm_sec=19, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=20, tm_min=33, tm_sec=23, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=20, tm_min=34, tm_sec=13, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=20, tm_min=35, tm_sec=22, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
   </si>
 </sst>
 </file>
@@ -608,7 +977,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E75"/>
+  <dimension ref="A1:E196"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -656,7 +1025,7 @@
         <v>1.5</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -673,7 +1042,7 @@
         <v>1.5</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -690,7 +1059,7 @@
         <v>1.5</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -707,7 +1076,7 @@
         <v>1.5</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -724,7 +1093,7 @@
         <v>1.5</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -741,7 +1110,7 @@
         <v>1.5</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -758,7 +1127,7 @@
         <v>1.5</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -775,7 +1144,7 @@
         <v>1.5</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -792,7 +1161,7 @@
         <v>1.5</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -809,7 +1178,7 @@
         <v>1.5</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -826,7 +1195,7 @@
         <v>1.5</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -843,7 +1212,7 @@
         <v>1.5</v>
       </c>
       <c r="E14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -860,7 +1229,7 @@
         <v>1.5</v>
       </c>
       <c r="E15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -877,7 +1246,7 @@
         <v>1.5</v>
       </c>
       <c r="E16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -894,7 +1263,7 @@
         <v>1.5</v>
       </c>
       <c r="E17" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -911,7 +1280,7 @@
         <v>1.5</v>
       </c>
       <c r="E18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -928,7 +1297,7 @@
         <v>1.5</v>
       </c>
       <c r="E19" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -945,7 +1314,7 @@
         <v>1.5</v>
       </c>
       <c r="E20" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -962,7 +1331,7 @@
         <v>1.5</v>
       </c>
       <c r="E21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -979,7 +1348,7 @@
         <v>1.5</v>
       </c>
       <c r="E22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -996,7 +1365,7 @@
         <v>1.5</v>
       </c>
       <c r="E23" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1013,7 +1382,7 @@
         <v>1.5</v>
       </c>
       <c r="E24" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1030,7 +1399,7 @@
         <v>1.5</v>
       </c>
       <c r="E25" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1047,7 +1416,7 @@
         <v>1.5</v>
       </c>
       <c r="E26" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1064,7 +1433,7 @@
         <v>1.5</v>
       </c>
       <c r="E27" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1081,7 +1450,7 @@
         <v>1.5</v>
       </c>
       <c r="E28" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1098,7 +1467,7 @@
         <v>1.5</v>
       </c>
       <c r="E29" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1115,7 +1484,7 @@
         <v>1.5</v>
       </c>
       <c r="E30" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1132,7 +1501,7 @@
         <v>1.5</v>
       </c>
       <c r="E31" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1149,7 +1518,7 @@
         <v>1.5</v>
       </c>
       <c r="E32" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1166,7 +1535,7 @@
         <v>1.5</v>
       </c>
       <c r="E33" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1183,7 +1552,7 @@
         <v>1.5</v>
       </c>
       <c r="E34" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1200,7 +1569,7 @@
         <v>1.5</v>
       </c>
       <c r="E35" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1217,7 +1586,7 @@
         <v>1.5</v>
       </c>
       <c r="E36" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1234,7 +1603,7 @@
         <v>1.5</v>
       </c>
       <c r="E37" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1251,7 +1620,7 @@
         <v>1.5</v>
       </c>
       <c r="E38" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1268,7 +1637,7 @@
         <v>1.5</v>
       </c>
       <c r="E39" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1285,7 +1654,7 @@
         <v>1.5</v>
       </c>
       <c r="E40" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1302,7 +1671,7 @@
         <v>1.5</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1319,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1336,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1353,7 +1722,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1370,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="E45" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1387,7 +1756,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1404,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="E47" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1421,7 +1790,7 @@
         <v>0</v>
       </c>
       <c r="E48" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1438,7 +1807,7 @@
         <v>0</v>
       </c>
       <c r="E49" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1455,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="E50" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1472,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="E51" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1489,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="E52" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1506,7 +1875,7 @@
         <v>0</v>
       </c>
       <c r="E53" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1523,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="E54" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1540,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="E55" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1557,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="E56" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1574,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="E57" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1591,7 +1960,7 @@
         <v>0</v>
       </c>
       <c r="E58" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1608,7 +1977,7 @@
         <v>0</v>
       </c>
       <c r="E59" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1625,7 +1994,7 @@
         <v>0</v>
       </c>
       <c r="E60" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1642,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="E61" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1659,7 +2028,7 @@
         <v>0</v>
       </c>
       <c r="E62" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1676,7 +2045,7 @@
         <v>0</v>
       </c>
       <c r="E63" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1693,7 +2062,7 @@
         <v>0</v>
       </c>
       <c r="E64" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1710,7 +2079,7 @@
         <v>0</v>
       </c>
       <c r="E65" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1727,7 +2096,7 @@
         <v>0</v>
       </c>
       <c r="E66" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1744,7 +2113,7 @@
         <v>0</v>
       </c>
       <c r="E67" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1761,7 +2130,7 @@
         <v>0</v>
       </c>
       <c r="E68" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1778,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="E69" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1795,7 +2164,7 @@
         <v>1.5</v>
       </c>
       <c r="E70" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1812,7 +2181,7 @@
         <v>1.5</v>
       </c>
       <c r="E71" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1829,7 +2198,7 @@
         <v>3</v>
       </c>
       <c r="E72" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1846,7 +2215,7 @@
         <v>3</v>
       </c>
       <c r="E73" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1863,7 +2232,7 @@
         <v>3</v>
       </c>
       <c r="E74" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1880,7 +2249,2064 @@
         <v>3</v>
       </c>
       <c r="E75" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76">
+        <v>0.05</v>
+      </c>
+      <c r="D76">
+        <v>3</v>
+      </c>
+      <c r="E76" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77">
+        <v>0.05</v>
+      </c>
+      <c r="D77">
+        <v>3</v>
+      </c>
+      <c r="E77" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>5</v>
+      </c>
+      <c r="C78">
+        <v>0.05</v>
+      </c>
+      <c r="D78">
+        <v>3</v>
+      </c>
+      <c r="E78" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>5</v>
+      </c>
+      <c r="C79">
+        <v>0.05</v>
+      </c>
+      <c r="D79">
+        <v>3</v>
+      </c>
+      <c r="E79" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="1">
         <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>5</v>
+      </c>
+      <c r="C80">
+        <v>0.05</v>
+      </c>
+      <c r="D80">
+        <v>3</v>
+      </c>
+      <c r="E80" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>5</v>
+      </c>
+      <c r="C81">
+        <v>0.05</v>
+      </c>
+      <c r="D81">
+        <v>3</v>
+      </c>
+      <c r="E81" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>5</v>
+      </c>
+      <c r="C82">
+        <v>0.05</v>
+      </c>
+      <c r="D82">
+        <v>3</v>
+      </c>
+      <c r="E82" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>5</v>
+      </c>
+      <c r="C83">
+        <v>0.05</v>
+      </c>
+      <c r="D83">
+        <v>3</v>
+      </c>
+      <c r="E83" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>5</v>
+      </c>
+      <c r="C84">
+        <v>0.05</v>
+      </c>
+      <c r="D84">
+        <v>3</v>
+      </c>
+      <c r="E84" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>5</v>
+      </c>
+      <c r="C85">
+        <v>0.05</v>
+      </c>
+      <c r="D85">
+        <v>3</v>
+      </c>
+      <c r="E85" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>5</v>
+      </c>
+      <c r="C86">
+        <v>0.05</v>
+      </c>
+      <c r="D86">
+        <v>3</v>
+      </c>
+      <c r="E86" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>5</v>
+      </c>
+      <c r="C87">
+        <v>0.05</v>
+      </c>
+      <c r="D87">
+        <v>3</v>
+      </c>
+      <c r="E87" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>5</v>
+      </c>
+      <c r="C88">
+        <v>0.05</v>
+      </c>
+      <c r="D88">
+        <v>3</v>
+      </c>
+      <c r="E88" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>5</v>
+      </c>
+      <c r="C89">
+        <v>0.05</v>
+      </c>
+      <c r="D89">
+        <v>3</v>
+      </c>
+      <c r="E89" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>5</v>
+      </c>
+      <c r="C90">
+        <v>0.05</v>
+      </c>
+      <c r="D90">
+        <v>3</v>
+      </c>
+      <c r="E90" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>5</v>
+      </c>
+      <c r="C91">
+        <v>0.05</v>
+      </c>
+      <c r="D91">
+        <v>3</v>
+      </c>
+      <c r="E91" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>5</v>
+      </c>
+      <c r="C92">
+        <v>0.05</v>
+      </c>
+      <c r="D92">
+        <v>3</v>
+      </c>
+      <c r="E92" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>5</v>
+      </c>
+      <c r="C93">
+        <v>0.05</v>
+      </c>
+      <c r="D93">
+        <v>3</v>
+      </c>
+      <c r="E93" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>5</v>
+      </c>
+      <c r="C94">
+        <v>0.05</v>
+      </c>
+      <c r="D94">
+        <v>3</v>
+      </c>
+      <c r="E94" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>5</v>
+      </c>
+      <c r="C95">
+        <v>0.05</v>
+      </c>
+      <c r="D95">
+        <v>3</v>
+      </c>
+      <c r="E95" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>5</v>
+      </c>
+      <c r="C96">
+        <v>0.05</v>
+      </c>
+      <c r="D96">
+        <v>3</v>
+      </c>
+      <c r="E96" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>5</v>
+      </c>
+      <c r="C97">
+        <v>0.05</v>
+      </c>
+      <c r="D97">
+        <v>3</v>
+      </c>
+      <c r="E97" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>5</v>
+      </c>
+      <c r="C98">
+        <v>0.05</v>
+      </c>
+      <c r="D98">
+        <v>3</v>
+      </c>
+      <c r="E98" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>5</v>
+      </c>
+      <c r="C99">
+        <v>0.05</v>
+      </c>
+      <c r="D99">
+        <v>3</v>
+      </c>
+      <c r="E99" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>5</v>
+      </c>
+      <c r="C100">
+        <v>0.05</v>
+      </c>
+      <c r="D100">
+        <v>3</v>
+      </c>
+      <c r="E100" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>5</v>
+      </c>
+      <c r="C101">
+        <v>0.05</v>
+      </c>
+      <c r="D101">
+        <v>3</v>
+      </c>
+      <c r="E101" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>5</v>
+      </c>
+      <c r="C102">
+        <v>0.05</v>
+      </c>
+      <c r="D102">
+        <v>3</v>
+      </c>
+      <c r="E102" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>5</v>
+      </c>
+      <c r="C103">
+        <v>0.05</v>
+      </c>
+      <c r="D103">
+        <v>3</v>
+      </c>
+      <c r="E103" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
+        <v>5</v>
+      </c>
+      <c r="C104">
+        <v>0.05</v>
+      </c>
+      <c r="D104">
+        <v>3</v>
+      </c>
+      <c r="E104" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
+        <v>5</v>
+      </c>
+      <c r="C105">
+        <v>0.05</v>
+      </c>
+      <c r="D105">
+        <v>3</v>
+      </c>
+      <c r="E105" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
+        <v>5</v>
+      </c>
+      <c r="C106">
+        <v>0.05</v>
+      </c>
+      <c r="D106">
+        <v>3</v>
+      </c>
+      <c r="E106" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
+        <v>5</v>
+      </c>
+      <c r="C107">
+        <v>0.05</v>
+      </c>
+      <c r="D107">
+        <v>3</v>
+      </c>
+      <c r="E107" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108" t="s">
+        <v>5</v>
+      </c>
+      <c r="C108">
+        <v>0.05</v>
+      </c>
+      <c r="D108">
+        <v>3</v>
+      </c>
+      <c r="E108" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109" t="s">
+        <v>5</v>
+      </c>
+      <c r="C109">
+        <v>0.05</v>
+      </c>
+      <c r="D109">
+        <v>3</v>
+      </c>
+      <c r="E109" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110" t="s">
+        <v>5</v>
+      </c>
+      <c r="C110">
+        <v>0.05</v>
+      </c>
+      <c r="D110">
+        <v>3</v>
+      </c>
+      <c r="E110" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111" t="s">
+        <v>5</v>
+      </c>
+      <c r="C111">
+        <v>0.05</v>
+      </c>
+      <c r="D111">
+        <v>3</v>
+      </c>
+      <c r="E111" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112" t="s">
+        <v>5</v>
+      </c>
+      <c r="C112">
+        <v>0.05</v>
+      </c>
+      <c r="D112">
+        <v>3</v>
+      </c>
+      <c r="E112" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113" t="s">
+        <v>5</v>
+      </c>
+      <c r="C113">
+        <v>0.05</v>
+      </c>
+      <c r="D113">
+        <v>3</v>
+      </c>
+      <c r="E113" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114" t="s">
+        <v>5</v>
+      </c>
+      <c r="C114">
+        <v>0.05</v>
+      </c>
+      <c r="D114">
+        <v>3</v>
+      </c>
+      <c r="E114" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115" t="s">
+        <v>5</v>
+      </c>
+      <c r="C115">
+        <v>0.05</v>
+      </c>
+      <c r="D115">
+        <v>3</v>
+      </c>
+      <c r="E115" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116" t="s">
+        <v>5</v>
+      </c>
+      <c r="C116">
+        <v>0.05</v>
+      </c>
+      <c r="D116">
+        <v>3</v>
+      </c>
+      <c r="E116" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117" t="s">
+        <v>5</v>
+      </c>
+      <c r="C117">
+        <v>0.05</v>
+      </c>
+      <c r="D117">
+        <v>3</v>
+      </c>
+      <c r="E117" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118" t="s">
+        <v>5</v>
+      </c>
+      <c r="C118">
+        <v>0.05</v>
+      </c>
+      <c r="D118">
+        <v>3</v>
+      </c>
+      <c r="E118" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119" t="s">
+        <v>5</v>
+      </c>
+      <c r="C119">
+        <v>0.05</v>
+      </c>
+      <c r="D119">
+        <v>3</v>
+      </c>
+      <c r="E119" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120" t="s">
+        <v>5</v>
+      </c>
+      <c r="C120">
+        <v>0.05</v>
+      </c>
+      <c r="D120">
+        <v>3</v>
+      </c>
+      <c r="E120" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121" t="s">
+        <v>5</v>
+      </c>
+      <c r="C121">
+        <v>0.05</v>
+      </c>
+      <c r="D121">
+        <v>3</v>
+      </c>
+      <c r="E121" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122" t="s">
+        <v>5</v>
+      </c>
+      <c r="C122">
+        <v>0.05</v>
+      </c>
+      <c r="D122">
+        <v>3</v>
+      </c>
+      <c r="E122" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123" t="s">
+        <v>5</v>
+      </c>
+      <c r="C123">
+        <v>0.05</v>
+      </c>
+      <c r="D123">
+        <v>3</v>
+      </c>
+      <c r="E123" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124" t="s">
+        <v>5</v>
+      </c>
+      <c r="C124">
+        <v>0.05</v>
+      </c>
+      <c r="D124">
+        <v>3</v>
+      </c>
+      <c r="E124" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125" t="s">
+        <v>5</v>
+      </c>
+      <c r="C125">
+        <v>0.05</v>
+      </c>
+      <c r="D125">
+        <v>3</v>
+      </c>
+      <c r="E125" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126" t="s">
+        <v>5</v>
+      </c>
+      <c r="C126">
+        <v>0.05</v>
+      </c>
+      <c r="D126">
+        <v>3</v>
+      </c>
+      <c r="E126" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127" t="s">
+        <v>5</v>
+      </c>
+      <c r="C127">
+        <v>0.05</v>
+      </c>
+      <c r="D127">
+        <v>3</v>
+      </c>
+      <c r="E127" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128" t="s">
+        <v>5</v>
+      </c>
+      <c r="C128">
+        <v>0.05</v>
+      </c>
+      <c r="D128">
+        <v>3</v>
+      </c>
+      <c r="E128" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129" t="s">
+        <v>5</v>
+      </c>
+      <c r="C129">
+        <v>0.05</v>
+      </c>
+      <c r="D129">
+        <v>3</v>
+      </c>
+      <c r="E129" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130" t="s">
+        <v>5</v>
+      </c>
+      <c r="C130">
+        <v>0.05</v>
+      </c>
+      <c r="D130">
+        <v>3</v>
+      </c>
+      <c r="E130" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131" t="s">
+        <v>5</v>
+      </c>
+      <c r="C131">
+        <v>0.05</v>
+      </c>
+      <c r="D131">
+        <v>3</v>
+      </c>
+      <c r="E131" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132" t="s">
+        <v>5</v>
+      </c>
+      <c r="C132">
+        <v>0.05</v>
+      </c>
+      <c r="D132">
+        <v>3</v>
+      </c>
+      <c r="E132" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133" t="s">
+        <v>5</v>
+      </c>
+      <c r="C133">
+        <v>0.05</v>
+      </c>
+      <c r="D133">
+        <v>3</v>
+      </c>
+      <c r="E133" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134" t="s">
+        <v>5</v>
+      </c>
+      <c r="C134">
+        <v>0.05</v>
+      </c>
+      <c r="D134">
+        <v>3</v>
+      </c>
+      <c r="E134" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135" t="s">
+        <v>5</v>
+      </c>
+      <c r="C135">
+        <v>0.05</v>
+      </c>
+      <c r="D135">
+        <v>3</v>
+      </c>
+      <c r="E135" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136" t="s">
+        <v>5</v>
+      </c>
+      <c r="C136">
+        <v>0.05</v>
+      </c>
+      <c r="D136">
+        <v>3</v>
+      </c>
+      <c r="E136" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137" t="s">
+        <v>5</v>
+      </c>
+      <c r="C137">
+        <v>0.05</v>
+      </c>
+      <c r="D137">
+        <v>3</v>
+      </c>
+      <c r="E137" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138" t="s">
+        <v>5</v>
+      </c>
+      <c r="C138">
+        <v>0.05</v>
+      </c>
+      <c r="D138">
+        <v>3</v>
+      </c>
+      <c r="E138" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139" t="s">
+        <v>5</v>
+      </c>
+      <c r="C139">
+        <v>0.05</v>
+      </c>
+      <c r="D139">
+        <v>3</v>
+      </c>
+      <c r="E139" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140" t="s">
+        <v>5</v>
+      </c>
+      <c r="C140">
+        <v>0.05</v>
+      </c>
+      <c r="D140">
+        <v>3</v>
+      </c>
+      <c r="E140" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141" t="s">
+        <v>5</v>
+      </c>
+      <c r="C141">
+        <v>0.05</v>
+      </c>
+      <c r="D141">
+        <v>3</v>
+      </c>
+      <c r="E141" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142" t="s">
+        <v>5</v>
+      </c>
+      <c r="C142">
+        <v>0.05</v>
+      </c>
+      <c r="D142">
+        <v>3</v>
+      </c>
+      <c r="E142" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143" t="s">
+        <v>5</v>
+      </c>
+      <c r="C143">
+        <v>0.05</v>
+      </c>
+      <c r="D143">
+        <v>3</v>
+      </c>
+      <c r="E143" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144" t="s">
+        <v>5</v>
+      </c>
+      <c r="C144">
+        <v>0.05</v>
+      </c>
+      <c r="D144">
+        <v>3</v>
+      </c>
+      <c r="E144" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145" t="s">
+        <v>5</v>
+      </c>
+      <c r="C145">
+        <v>0.05</v>
+      </c>
+      <c r="D145">
+        <v>3</v>
+      </c>
+      <c r="E145" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146" t="s">
+        <v>5</v>
+      </c>
+      <c r="C146">
+        <v>0.05</v>
+      </c>
+      <c r="D146">
+        <v>3</v>
+      </c>
+      <c r="E146" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147" t="s">
+        <v>5</v>
+      </c>
+      <c r="C147">
+        <v>0.05</v>
+      </c>
+      <c r="D147">
+        <v>3</v>
+      </c>
+      <c r="E147" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148" t="s">
+        <v>5</v>
+      </c>
+      <c r="C148">
+        <v>0.05</v>
+      </c>
+      <c r="D148">
+        <v>3</v>
+      </c>
+      <c r="E148" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149" t="s">
+        <v>6</v>
+      </c>
+      <c r="C149">
+        <v>0.05</v>
+      </c>
+      <c r="D149">
+        <v>3</v>
+      </c>
+      <c r="E149" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150" t="s">
+        <v>6</v>
+      </c>
+      <c r="C150">
+        <v>0.05</v>
+      </c>
+      <c r="D150">
+        <v>3</v>
+      </c>
+      <c r="E150" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151" t="s">
+        <v>6</v>
+      </c>
+      <c r="C151">
+        <v>0.05</v>
+      </c>
+      <c r="D151">
+        <v>10</v>
+      </c>
+      <c r="E151" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152" t="s">
+        <v>7</v>
+      </c>
+      <c r="C152">
+        <v>0.05</v>
+      </c>
+      <c r="D152">
+        <v>10</v>
+      </c>
+      <c r="E152" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153" t="s">
+        <v>7</v>
+      </c>
+      <c r="C153">
+        <v>0.05</v>
+      </c>
+      <c r="D153">
+        <v>10</v>
+      </c>
+      <c r="E153" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154" t="s">
+        <v>7</v>
+      </c>
+      <c r="C154">
+        <v>0.05</v>
+      </c>
+      <c r="D154">
+        <v>10</v>
+      </c>
+      <c r="E154" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155" t="s">
+        <v>7</v>
+      </c>
+      <c r="C155">
+        <v>0.05</v>
+      </c>
+      <c r="D155">
+        <v>10</v>
+      </c>
+      <c r="E155" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156" t="s">
+        <v>7</v>
+      </c>
+      <c r="C156">
+        <v>0.05</v>
+      </c>
+      <c r="D156">
+        <v>2</v>
+      </c>
+      <c r="E156" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157" t="s">
+        <v>7</v>
+      </c>
+      <c r="C157">
+        <v>0.05</v>
+      </c>
+      <c r="D157">
+        <v>2</v>
+      </c>
+      <c r="E157" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158" t="s">
+        <v>7</v>
+      </c>
+      <c r="C158">
+        <v>0.05</v>
+      </c>
+      <c r="D158">
+        <v>2</v>
+      </c>
+      <c r="E158" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159" t="s">
+        <v>7</v>
+      </c>
+      <c r="C159">
+        <v>0.05</v>
+      </c>
+      <c r="D159">
+        <v>2</v>
+      </c>
+      <c r="E159" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160" t="s">
+        <v>7</v>
+      </c>
+      <c r="C160">
+        <v>0.05</v>
+      </c>
+      <c r="D160">
+        <v>2</v>
+      </c>
+      <c r="E160" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161" t="s">
+        <v>7</v>
+      </c>
+      <c r="C161">
+        <v>0.05</v>
+      </c>
+      <c r="D161">
+        <v>2</v>
+      </c>
+      <c r="E161" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162" t="s">
+        <v>7</v>
+      </c>
+      <c r="C162">
+        <v>0.05</v>
+      </c>
+      <c r="D162">
+        <v>2</v>
+      </c>
+      <c r="E162" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="B163" t="s">
+        <v>7</v>
+      </c>
+      <c r="C163">
+        <v>0.05</v>
+      </c>
+      <c r="D163">
+        <v>2</v>
+      </c>
+      <c r="E163" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+      <c r="B164" t="s">
+        <v>7</v>
+      </c>
+      <c r="C164">
+        <v>0.05</v>
+      </c>
+      <c r="D164">
+        <v>2</v>
+      </c>
+      <c r="E164" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="B165" t="s">
+        <v>7</v>
+      </c>
+      <c r="C165">
+        <v>0.05</v>
+      </c>
+      <c r="D165">
+        <v>2</v>
+      </c>
+      <c r="E165" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="B166" t="s">
+        <v>7</v>
+      </c>
+      <c r="C166">
+        <v>0.05</v>
+      </c>
+      <c r="D166">
+        <v>2</v>
+      </c>
+      <c r="E166" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+      <c r="B167" t="s">
+        <v>7</v>
+      </c>
+      <c r="C167">
+        <v>0.05</v>
+      </c>
+      <c r="D167">
+        <v>2</v>
+      </c>
+      <c r="E167" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" s="1">
+        <v>166</v>
+      </c>
+      <c r="B168" t="s">
+        <v>7</v>
+      </c>
+      <c r="C168">
+        <v>0.05</v>
+      </c>
+      <c r="D168">
+        <v>2</v>
+      </c>
+      <c r="E168" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="B169" t="s">
+        <v>7</v>
+      </c>
+      <c r="C169">
+        <v>0.05</v>
+      </c>
+      <c r="D169">
+        <v>2</v>
+      </c>
+      <c r="E169" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" s="1">
+        <v>168</v>
+      </c>
+      <c r="B170" t="s">
+        <v>7</v>
+      </c>
+      <c r="C170">
+        <v>0.05</v>
+      </c>
+      <c r="D170">
+        <v>2</v>
+      </c>
+      <c r="E170" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" s="1">
+        <v>169</v>
+      </c>
+      <c r="B171" t="s">
+        <v>7</v>
+      </c>
+      <c r="C171">
+        <v>0.05</v>
+      </c>
+      <c r="D171">
+        <v>2</v>
+      </c>
+      <c r="E171" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" s="1">
+        <v>170</v>
+      </c>
+      <c r="B172" t="s">
+        <v>7</v>
+      </c>
+      <c r="C172">
+        <v>0.05</v>
+      </c>
+      <c r="D172">
+        <v>2</v>
+      </c>
+      <c r="E172" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" s="1">
+        <v>171</v>
+      </c>
+      <c r="B173" t="s">
+        <v>7</v>
+      </c>
+      <c r="C173">
+        <v>0.05</v>
+      </c>
+      <c r="D173">
+        <v>2</v>
+      </c>
+      <c r="E173" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" s="1">
+        <v>172</v>
+      </c>
+      <c r="B174" t="s">
+        <v>7</v>
+      </c>
+      <c r="C174">
+        <v>0.05</v>
+      </c>
+      <c r="D174">
+        <v>2</v>
+      </c>
+      <c r="E174" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" s="1">
+        <v>173</v>
+      </c>
+      <c r="B175" t="s">
+        <v>7</v>
+      </c>
+      <c r="C175">
+        <v>0.05</v>
+      </c>
+      <c r="D175">
+        <v>2</v>
+      </c>
+      <c r="E175" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" s="1">
+        <v>174</v>
+      </c>
+      <c r="B176" t="s">
+        <v>7</v>
+      </c>
+      <c r="C176">
+        <v>0.05</v>
+      </c>
+      <c r="D176">
+        <v>2</v>
+      </c>
+      <c r="E176" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" s="1">
+        <v>175</v>
+      </c>
+      <c r="B177" t="s">
+        <v>7</v>
+      </c>
+      <c r="C177">
+        <v>0.05</v>
+      </c>
+      <c r="D177">
+        <v>2</v>
+      </c>
+      <c r="E177" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" s="1">
+        <v>176</v>
+      </c>
+      <c r="B178" t="s">
+        <v>7</v>
+      </c>
+      <c r="C178">
+        <v>0.05</v>
+      </c>
+      <c r="D178">
+        <v>2</v>
+      </c>
+      <c r="E178" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" s="1">
+        <v>177</v>
+      </c>
+      <c r="B179" t="s">
+        <v>7</v>
+      </c>
+      <c r="C179">
+        <v>0.05</v>
+      </c>
+      <c r="D179">
+        <v>2</v>
+      </c>
+      <c r="E179" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" s="1">
+        <v>178</v>
+      </c>
+      <c r="B180" t="s">
+        <v>7</v>
+      </c>
+      <c r="C180">
+        <v>0.05</v>
+      </c>
+      <c r="D180">
+        <v>2</v>
+      </c>
+      <c r="E180" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" s="1">
+        <v>179</v>
+      </c>
+      <c r="B181" t="s">
+        <v>7</v>
+      </c>
+      <c r="C181">
+        <v>0.05</v>
+      </c>
+      <c r="D181">
+        <v>2</v>
+      </c>
+      <c r="E181" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" s="1">
+        <v>180</v>
+      </c>
+      <c r="B182" t="s">
+        <v>7</v>
+      </c>
+      <c r="C182">
+        <v>0.05</v>
+      </c>
+      <c r="D182">
+        <v>2</v>
+      </c>
+      <c r="E182" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" s="1">
+        <v>181</v>
+      </c>
+      <c r="B183" t="s">
+        <v>7</v>
+      </c>
+      <c r="C183">
+        <v>0.05</v>
+      </c>
+      <c r="D183">
+        <v>2</v>
+      </c>
+      <c r="E183" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" s="1">
+        <v>182</v>
+      </c>
+      <c r="B184" t="s">
+        <v>7</v>
+      </c>
+      <c r="C184">
+        <v>0.05</v>
+      </c>
+      <c r="D184">
+        <v>2</v>
+      </c>
+      <c r="E184" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" s="1">
+        <v>183</v>
+      </c>
+      <c r="B185" t="s">
+        <v>7</v>
+      </c>
+      <c r="C185">
+        <v>0.05</v>
+      </c>
+      <c r="D185">
+        <v>2</v>
+      </c>
+      <c r="E185" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" s="1">
+        <v>184</v>
+      </c>
+      <c r="B186" t="s">
+        <v>7</v>
+      </c>
+      <c r="C186">
+        <v>0.05</v>
+      </c>
+      <c r="D186">
+        <v>2</v>
+      </c>
+      <c r="E186" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" s="1">
+        <v>185</v>
+      </c>
+      <c r="B187" t="s">
+        <v>7</v>
+      </c>
+      <c r="C187">
+        <v>0.05</v>
+      </c>
+      <c r="D187">
+        <v>2</v>
+      </c>
+      <c r="E187" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" s="1">
+        <v>186</v>
+      </c>
+      <c r="B188" t="s">
+        <v>7</v>
+      </c>
+      <c r="C188">
+        <v>0.05</v>
+      </c>
+      <c r="D188">
+        <v>2</v>
+      </c>
+      <c r="E188" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" s="1">
+        <v>187</v>
+      </c>
+      <c r="B189" t="s">
+        <v>7</v>
+      </c>
+      <c r="C189">
+        <v>0.05</v>
+      </c>
+      <c r="D189">
+        <v>2</v>
+      </c>
+      <c r="E189" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" s="1">
+        <v>188</v>
+      </c>
+      <c r="B190" t="s">
+        <v>7</v>
+      </c>
+      <c r="C190">
+        <v>0.05</v>
+      </c>
+      <c r="D190">
+        <v>2</v>
+      </c>
+      <c r="E190" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" s="1">
+        <v>189</v>
+      </c>
+      <c r="B191" t="s">
+        <v>7</v>
+      </c>
+      <c r="C191">
+        <v>0.05</v>
+      </c>
+      <c r="D191">
+        <v>2</v>
+      </c>
+      <c r="E191" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" s="1">
+        <v>190</v>
+      </c>
+      <c r="B192" t="s">
+        <v>7</v>
+      </c>
+      <c r="C192">
+        <v>0.05</v>
+      </c>
+      <c r="D192">
+        <v>2</v>
+      </c>
+      <c r="E192" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" s="1">
+        <v>191</v>
+      </c>
+      <c r="B193" t="s">
+        <v>7</v>
+      </c>
+      <c r="C193">
+        <v>0.05</v>
+      </c>
+      <c r="D193">
+        <v>2</v>
+      </c>
+      <c r="E193" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" s="1">
+        <v>192</v>
+      </c>
+      <c r="B194" t="s">
+        <v>7</v>
+      </c>
+      <c r="C194">
+        <v>0.05</v>
+      </c>
+      <c r="D194">
+        <v>2</v>
+      </c>
+      <c r="E194" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" s="1">
+        <v>193</v>
+      </c>
+      <c r="B195" t="s">
+        <v>7</v>
+      </c>
+      <c r="C195">
+        <v>0.05</v>
+      </c>
+      <c r="D195">
+        <v>2</v>
+      </c>
+      <c r="E195" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" s="1">
+        <v>194</v>
+      </c>
+      <c r="B196" t="s">
+        <v>7</v>
+      </c>
+      <c r="C196">
+        <v>0.05</v>
+      </c>
+      <c r="D196">
+        <v>2</v>
+      </c>
+      <c r="E196" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>
